--- a/artfynd/A 14955-2025 artfynd.xlsx
+++ b/artfynd/A 14955-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131108200</v>
       </c>
       <c r="B2" t="n">
-        <v>99049</v>
+        <v>99050</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>131108258</v>
       </c>
       <c r="B3" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>131108302</v>
       </c>
       <c r="B4" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 14955-2025 artfynd.xlsx
+++ b/artfynd/A 14955-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131108200</v>
       </c>
       <c r="B2" t="n">
-        <v>99050</v>
+        <v>99051</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>131108258</v>
       </c>
       <c r="B3" t="n">
-        <v>92268</v>
+        <v>92269</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>131108302</v>
       </c>
       <c r="B4" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 14955-2025 artfynd.xlsx
+++ b/artfynd/A 14955-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131108200</v>
       </c>
       <c r="B2" t="n">
-        <v>99051</v>
+        <v>99054</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>131108258</v>
       </c>
       <c r="B3" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>131108302</v>
       </c>
       <c r="B4" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
